--- a/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8691028581786513</v>
+        <v>-0.7870227984263392</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4992416001423877</v>
+        <v>-0.3936490232238243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.499218422857044</v>
+        <v>-1.6531090815318</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1957452446553161</v>
+        <v>-0.1766052103080122</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2675861559296857</v>
+        <v>-0.1829494668315022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3824598994470764</v>
+        <v>-0.4213911882984966</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.230291000078948</v>
+        <v>3.025199599420509</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.681773296519056</v>
+        <v>2.570286985074449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.733851305896549</v>
+        <v>2.6603866431883</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.210547714040666</v>
+        <v>1.104336551410405</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.46616987104687</v>
+        <v>2.325522247877403</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.437548884350613</v>
+        <v>1.366269282326339</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.866688353170222</v>
+        <v>-1.909978233647874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3489309177779588</v>
+        <v>0.4168276908390695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.030206702791571</v>
+        <v>-2.087112937792405</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6078728227927647</v>
+        <v>-0.6033808189168481</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1468016156765277</v>
+        <v>0.2019642937000152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5820790373096879</v>
+        <v>-0.5925523583950859</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3806416748769721</v>
+        <v>0.3926329381092776</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.606996910363244</v>
+        <v>2.522021366936983</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05089078444519222</v>
+        <v>0.2148933240783871</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2199708800784835</v>
+        <v>0.2506722701865875</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.766067899002699</v>
+        <v>2.895952881477785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03470169432610103</v>
+        <v>0.09349786662418891</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.08989510052364783</v>
+        <v>-0.1461575959449761</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.696002363604488</v>
+        <v>-2.385347942258626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8359579702478159</v>
+        <v>-0.654855706512308</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1669158406644314</v>
+        <v>-0.2134208137857169</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5857133243410705</v>
+        <v>-0.5638740875538485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2546194021213541</v>
+        <v>-0.2135483671530187</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.429600972332814</v>
+        <v>4.510709868036885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.470387742936678</v>
+        <v>2.517605309178822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.98044285731445</v>
+        <v>4.017851605180405</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.284538484759926</v>
+        <v>5.129198802899754</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.290898784097937</v>
+        <v>1.324321571106791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.241630549821619</v>
+        <v>2.536589392151904</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3849438721433618</v>
+        <v>-0.4273836560431329</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2231445211695748</v>
+        <v>0.3458052978060841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.145799915026442</v>
+        <v>-1.022645181723075</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1289162073795352</v>
+        <v>-0.1433943381155079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1032633281616697</v>
+        <v>0.1491771825597407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3358213714842317</v>
+        <v>-0.319895236298464</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.48421089501315</v>
+        <v>1.447621255241235</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.851968500237239</v>
+        <v>1.86122696415409</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6872058259054253</v>
+        <v>0.6715964765882692</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7200918368290076</v>
+        <v>0.6670432403385933</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.305276027113089</v>
+        <v>1.372686959924358</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2922207832280581</v>
+        <v>0.2838376284506303</v>
       </c>
     </row>
     <row r="16">
